--- a/valuation_financial_health.xlsx
+++ b/valuation_financial_health.xlsx
@@ -14,39 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Liquidity/Financial Health</t>
   </si>
   <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>2022-12</t>
-  </si>
-  <si>
-    <t>2023-12</t>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>2016-09</t>
+  </si>
+  <si>
+    <t>2017-09</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2020-09</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>2022-09</t>
+  </si>
+  <si>
+    <t>2023-09</t>
+  </si>
+  <si>
+    <t>2024-09</t>
   </si>
   <si>
     <t>Latest Qtr</t>
@@ -58,6 +58,9 @@
     <t>Quick Ratio</t>
   </si>
   <si>
+    <t>Interest Coverage</t>
+  </si>
+  <si>
     <t>Financial Leverage</t>
   </si>
   <si>
@@ -67,61 +70,46 @@
     <t>Book Value/Share</t>
   </si>
   <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>0.73</t>
+    <t>Cap Ex as a % of Sales</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>-0.47</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>-0.97</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>-0.55</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>-0.75</t>
-  </si>
-  <si>
-    <t>1.22</t>
+    <t>6.41</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>4.41</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>0.82</t>
   </si>
   <si>
     <t>0.68</t>
   </si>
   <si>
-    <t>-0.59</t>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>4.47</t>
+  </si>
+  <si>
+    <t>2.76</t>
   </si>
 </sst>
 </file>
@@ -479,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,37 +516,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1.46</v>
+        <v>1.11</v>
       </c>
       <c r="C2">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="D2">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="E2">
-        <v>1.34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
+        <v>1.12</v>
+      </c>
+      <c r="F2">
+        <v>1.54</v>
+      </c>
+      <c r="G2">
+        <v>1.36</v>
+      </c>
+      <c r="H2">
+        <v>1.07</v>
+      </c>
+      <c r="I2">
+        <v>0.88</v>
+      </c>
+      <c r="J2">
+        <v>0.99</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -566,37 +554,37 @@
         <v>13</v>
       </c>
       <c r="B3">
+        <v>0.89</v>
+      </c>
+      <c r="C3">
+        <v>1.22</v>
+      </c>
+      <c r="D3">
         <v>1.09</v>
       </c>
-      <c r="C3">
-        <v>1.15</v>
-      </c>
-      <c r="D3">
-        <v>1.02</v>
-      </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
+        <v>0.99</v>
+      </c>
+      <c r="F3">
+        <v>1.38</v>
+      </c>
+      <c r="G3">
+        <v>1.22</v>
+      </c>
+      <c r="H3">
+        <v>0.91</v>
+      </c>
+      <c r="I3">
+        <v>0.71</v>
+      </c>
+      <c r="J3">
+        <v>0.84</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -604,37 +592,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.48</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="C4">
-        <v>4.45</v>
+        <v>43.15</v>
       </c>
       <c r="D4">
-        <v>13.72</v>
+        <v>28.59</v>
       </c>
       <c r="E4">
-        <v>4.86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
+        <v>23.5</v>
+      </c>
+      <c r="F4">
+        <v>19.38</v>
+      </c>
+      <c r="G4">
+        <v>24.35</v>
+      </c>
+      <c r="H4">
+        <v>42.29</v>
+      </c>
+      <c r="I4">
+        <v>41.64</v>
+      </c>
+      <c r="J4">
+        <v>29.92</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -642,37 +630,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.34</v>
+        <v>2.43</v>
       </c>
       <c r="C5">
-        <v>0.58</v>
+        <v>2.51</v>
       </c>
       <c r="D5">
-        <v>1.71</v>
+        <v>2.8</v>
       </c>
       <c r="E5">
-        <v>0.55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
+        <v>3.41</v>
+      </c>
+      <c r="F5">
+        <v>3.74</v>
+      </c>
+      <c r="G5">
+        <v>4.96</v>
+      </c>
+      <c r="H5">
+        <v>5.56</v>
+      </c>
+      <c r="I5">
+        <v>6.96</v>
+      </c>
+      <c r="J5">
+        <v>5.67</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -680,37 +668,113 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>1.23</v>
+        <v>0.45</v>
       </c>
       <c r="C6">
+        <v>0.59</v>
+      </c>
+      <c r="D6">
+        <v>0.73</v>
+      </c>
+      <c r="E6">
+        <v>0.87</v>
+      </c>
+      <c r="F6">
         <v>1.01</v>
       </c>
-      <c r="D6">
-        <v>0.72</v>
-      </c>
-      <c r="E6">
-        <v>0.6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>1.64</v>
+      </c>
+      <c r="H6">
+        <v>1.89</v>
+      </c>
+      <c r="I6">
+        <v>2.17</v>
+      </c>
+      <c r="J6">
+        <v>1.71</v>
+      </c>
+      <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>5.63</v>
+      </c>
+      <c r="C7">
+        <v>5.93</v>
+      </c>
+      <c r="D7">
+        <v>6.46</v>
+      </c>
+      <c r="E7">
+        <v>6.04</v>
+      </c>
+      <c r="F7">
+        <v>5.43</v>
+      </c>
+      <c r="G7">
+        <v>4.26</v>
+      </c>
+      <c r="H7">
+        <v>3.91</v>
+      </c>
+      <c r="I7">
+        <v>3.64</v>
+      </c>
+      <c r="J7">
+        <v>3.88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>4.92</v>
+      </c>
+      <c r="C8">
+        <v>6.28</v>
+      </c>
+      <c r="D8">
+        <v>5.58</v>
+      </c>
+      <c r="E8">
+        <v>5.01</v>
+      </c>
+      <c r="F8">
+        <v>4.03</v>
+      </c>
+      <c r="G8">
+        <v>2.66</v>
+      </c>
+      <c r="H8">
+        <v>3.03</v>
+      </c>
+      <c r="I8">
+        <v>2.72</v>
+      </c>
+      <c r="J8">
+        <v>2.86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
